--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3284.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3284.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7301661398468552</v>
+        <v>1.331632256507874</v>
       </c>
       <c r="B1">
-        <v>1.299701317982092</v>
+        <v>3.278643131256104</v>
       </c>
       <c r="C1">
-        <v>3.739157553763047</v>
+        <v>2.662660598754883</v>
       </c>
       <c r="D1">
-        <v>4.149858406235013</v>
+        <v>1.390368342399597</v>
       </c>
       <c r="E1">
-        <v>1.591887282010381</v>
+        <v>1.027259588241577</v>
       </c>
     </row>
   </sheetData>
